--- a/3-from-excel-cells-to-r-vectors/intro-to-vectors.xlsx
+++ b/3-from-excel-cells-to-r-vectors/intro-to-vectors.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Google Drive\OReilly_Slides\R for Excel Users\3. From Excel cells to R vectors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Google Drive\Webinar - R for Excel Users\Resources - R for Excel Users Webinar\3-from-excel-cells-to-r-vectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21574" windowHeight="9429"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Billy</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>name_length</t>
+  </si>
+  <si>
+    <t>Each cell is calculated on its own</t>
+  </si>
+  <si>
+    <t>How could we operate on several cells at once?   Vectors….</t>
   </si>
 </sst>
 </file>
@@ -365,29 +371,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="11.69140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>15</v>
       </c>
@@ -395,15 +404,23 @@
         <f>A2^2</f>
         <v>225</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B2)</f>
+        <v>=A2^2</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
-        <f>LEN(D2)</f>
+      <c r="F2">
+        <f>LEN(E2)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F2)</f>
+        <v>=LEN(E2)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>18</v>
       </c>
@@ -411,15 +428,23 @@
         <f t="shared" ref="B3:B5" si="0">A3^2</f>
         <v>324</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B3)</f>
+        <v>=A3^2</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E5" si="1">LEN(D3)</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="1">LEN(E3)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F3)</f>
+        <v>=LEN(E3)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>22</v>
       </c>
@@ -427,15 +452,23 @@
         <f t="shared" si="0"/>
         <v>484</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B4)</f>
+        <v>=A4^2</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F4)</f>
+        <v>=LEN(E4)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -443,12 +476,30 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B5)</f>
+        <v>=A5^2</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>4</v>
+      </c>
+      <c r="G5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F5)</f>
+        <v>=LEN(E5)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
